--- a/result.xlsx
+++ b/result.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C25558-B6E2-4E03-A483-F015500D0190}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CD75EE-BDF0-41E1-8365-1968AA68243F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Dataset</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Vertebral_column (70/310 positive)</t>
+  </si>
+  <si>
+    <t>semeisic bump (70/310 positive)</t>
   </si>
 </sst>
 </file>
@@ -100,10 +103,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -385,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,16 +437,16 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>0.3</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>50</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>100</v>
       </c>
       <c r="E2" t="s">
@@ -460,10 +463,10 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
       <c r="E3" t="s">
         <v>8</v>
       </c>
@@ -478,10 +481,10 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
       <c r="E4" t="s">
         <v>9</v>
       </c>
@@ -496,16 +499,16 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>0.3</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>50</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>100</v>
       </c>
       <c r="E5" t="s">
@@ -522,10 +525,10 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
       <c r="E6" t="s">
         <v>8</v>
       </c>
@@ -540,10 +543,10 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
       <c r="E7" t="s">
         <v>9</v>
       </c>
@@ -557,8 +560,74 @@
         <v>0.93</v>
       </c>
     </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>50</v>
+      </c>
+      <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0.17</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0.39</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0.24</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
